--- a/backend/fms_core/static/submission_templates/Library_conversion_v4_4_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Library_conversion_v4_4_0.xlsx
@@ -848,7 +848,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="24.78"/>
@@ -8746,7 +8746,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="24.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.67"/>
@@ -21918,7 +21918,7 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H5" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H5:H480" type="list">
       <formula1>Index!$E$2:$E$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -21946,13 +21946,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.99"/>
   </cols>
@@ -22312,7 +22312,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.78"/>

--- a/backend/fms_core/static/submission_templates/Library_conversion_v4_4_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Library_conversion_v4_4_0.xlsx
@@ -845,10 +845,12 @@
   <dimension ref="A1:AC1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="24.78"/>
@@ -8743,10 +8745,12 @@
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="24.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.67"/>
@@ -21952,7 +21956,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.99"/>
   </cols>
@@ -22312,7 +22316,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.78"/>

--- a/backend/fms_core/static/submission_templates/Library_conversion_v4_4_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Library_conversion_v4_4_0.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="101">
   <si>
     <t xml:space="preserve">Library Conversion Template</t>
   </si>
@@ -361,7 +361,7 @@
     <t xml:space="preserve">Ignore workflow - Do not register as part of a workflow</t>
   </si>
   <si>
-    <t xml:space="preserve">Tony Tir</t>
+    <t xml:space="preserve">Ariane Boisclair</t>
   </si>
   <si>
     <t xml:space="preserve">Eppendorf 4 Pre-PCR</t>
@@ -379,7 +379,7 @@
     <t xml:space="preserve">Tube Strip 3x1</t>
   </si>
   <si>
-    <t xml:space="preserve">Leïla Drissi Kaitouni</t>
+    <t xml:space="preserve">Antoine Farley</t>
   </si>
   <si>
     <t xml:space="preserve">Eppendorf 1 Post-PCR</t>
@@ -388,10 +388,16 @@
     <t xml:space="preserve">Tube Strip 4x1</t>
   </si>
   <si>
+    <t xml:space="preserve">Lena Li</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eppendorf 2 Post-PCR</t>
   </si>
   <si>
     <t xml:space="preserve">Tube Strip 5x1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Girija Daliah</t>
   </si>
   <si>
     <t xml:space="preserve">Tube Strip 6x1</t>
@@ -850,7 +856,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="24.78"/>
@@ -8718,12 +8724,12 @@
       <formula1>Index!$C$2:$C$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E7:E380" type="list">
-      <formula1>Index!$B$2:$B$7</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H380" type="list">
+      <formula1>Index!$D$2:$D$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H380" type="list">
-      <formula1>Index!$D$2:$D$8</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E7:E380" type="list">
+      <formula1>Index!$B$2:$B$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -8750,7 +8756,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="24.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.67"/>
@@ -22316,7 +22322,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.78"/>
@@ -22355,7 +22361,7 @@
       <c r="A2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>70</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -22372,7 +22378,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -22390,7 +22396,7 @@
       <c r="J3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -22408,7 +22414,7 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C5" s="13"/>
@@ -22422,7 +22428,7 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="13"/>
@@ -22436,7 +22442,7 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C7" s="13"/>
@@ -22449,22 +22455,26 @@
       <c r="F7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="13"/>
+      <c r="B8" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="13"/>
+      <c r="B9" s="0" t="s">
+        <v>97</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F9" s="13"/>
     </row>
@@ -22473,7 +22483,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F10" s="13"/>
     </row>
@@ -22482,7 +22492,7 @@
       <c r="C11" s="13"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F11" s="13"/>
     </row>

--- a/backend/fms_core/static/submission_templates/Library_conversion_v4_4_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Library_conversion_v4_4_0.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
   <si>
     <t xml:space="preserve">Library Conversion Template</t>
   </si>
@@ -358,7 +358,7 @@
     <t xml:space="preserve">384-well plate</t>
   </si>
   <si>
-    <t xml:space="preserve">Ignore workflow - Do not register as part of a workflow</t>
+    <t xml:space="preserve">Repeat step - Move to next step and repeat current step</t>
   </si>
   <si>
     <t xml:space="preserve">Ariane Boisclair</t>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tube Strip 2x1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignore workflow - Do not register as part of a workflow</t>
   </si>
   <si>
     <t xml:space="preserve">Marlon Amersi</t>
@@ -856,7 +859,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="24.78"/>
@@ -8756,7 +8759,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="24.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.67"/>
@@ -21937,7 +21940,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5:R381" type="list">
-      <formula1>Index!$F$2:$F$4</formula1>
+      <formula1>Index!$F$2:$F$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -22322,14 +22325,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.11"/>
@@ -22424,57 +22427,59 @@
       <c r="E5" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>88</v>
+      </c>
       <c r="J5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F6" s="13"/>
       <c r="J6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F9" s="13"/>
     </row>
@@ -22483,7 +22488,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F10" s="13"/>
     </row>
@@ -22492,7 +22497,7 @@
       <c r="C11" s="13"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F11" s="13"/>
     </row>
@@ -23959,7 +23964,9 @@
       <c r="E220" s="13"/>
       <c r="F220" s="13"/>
     </row>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F221" s="13"/>
+    </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/backend/fms_core/static/submission_templates/Library_conversion_v4_4_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Library_conversion_v4_4_0.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
   <si>
     <t xml:space="preserve">Library Conversion Template</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tube Strip 6x1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marie-Michelle Simons</t>
   </si>
   <si>
     <t xml:space="preserve">Tube Strip 7x1</t>
@@ -859,7 +862,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.26171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="24.78"/>
@@ -8719,26 +8722,26 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C7:C380" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C7:C380" type="list">
       <formula1>Index!$A$2</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F7:F383" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F7:F383" type="list">
       <formula1>Index!$C$2:$C$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H380" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H380" type="list">
       <formula1>Index!$D$2:$D$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E7:E380" type="list">
-      <formula1>Index!$B$2:$B$9</formula1>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E7:E380" type="list">
+      <formula1>Index!$B$2:$B$10</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -8759,7 +8762,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.26171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="24.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.67"/>
@@ -21931,22 +21934,22 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H5:H480" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H5:H480" type="list">
       <formula1>Index!$E$2:$E$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A5:A381" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A5:A381" type="list">
       <formula1>'Conversion Batch'!$A$7:$A$380</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5:R381" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5:R381" type="list">
       <formula1>Index!$F$2:$F$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -22306,7 +22309,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
@@ -22322,10 +22325,10 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.26171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.78"/>
@@ -22484,11 +22487,13 @@
       <c r="F9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F10" s="13"/>
     </row>
@@ -22497,7 +22502,7 @@
       <c r="C11" s="13"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F11" s="13"/>
     </row>
@@ -24748,8 +24753,8 @@
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/backend/fms_core/static/submission_templates/Library_conversion_v4_4_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Library_conversion_v4_4_0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Conversion Batch" sheetId="1" state="visible" r:id="rId2"/>
@@ -856,13 +856,13 @@
   </sheetPr>
   <dimension ref="A1:AC1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.26171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="24.78"/>
@@ -8762,7 +8762,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.26171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="24.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.67"/>
@@ -22324,11 +22324,11 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.26171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.78"/>

--- a/backend/fms_core/static/submission_templates/Library_conversion_v4_4_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Library_conversion_v4_4_0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Conversion Batch" sheetId="1" state="visible" r:id="rId2"/>
@@ -856,13 +856,13 @@
   </sheetPr>
   <dimension ref="A1:AC1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.27734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="24.78"/>
@@ -8762,7 +8762,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.27734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="24.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.67"/>
@@ -22324,11 +22324,11 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.27734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.78"/>

--- a/backend/fms_core/static/submission_templates/Library_conversion_v4_4_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Library_conversion_v4_4_0.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
   <si>
     <t xml:space="preserve">Library Conversion Template</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tube Strip 6x1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marie-Michelle Simons</t>
   </si>
   <si>
     <t xml:space="preserve">Tube Strip 7x1</t>
@@ -859,7 +862,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.27734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="24.78"/>
@@ -8719,26 +8722,26 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C7:C380" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C7:C380" type="list">
       <formula1>Index!$A$2</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F7:F383" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F7:F383" type="list">
       <formula1>Index!$C$2:$C$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H380" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H380" type="list">
       <formula1>Index!$D$2:$D$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E7:E380" type="list">
-      <formula1>Index!$B$2:$B$9</formula1>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E7:E380" type="list">
+      <formula1>Index!$B$2:$B$10</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -8759,7 +8762,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.27734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="24.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.67"/>
@@ -21931,22 +21934,22 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H5:H480" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H5:H480" type="list">
       <formula1>Index!$E$2:$E$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A5:A381" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A5:A381" type="list">
       <formula1>'Conversion Batch'!$A$7:$A$380</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5:R381" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5:R381" type="list">
       <formula1>Index!$F$2:$F$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -22306,7 +22309,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
@@ -22325,7 +22328,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.27734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.78"/>
@@ -22484,11 +22487,13 @@
       <c r="F9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F10" s="13"/>
     </row>
@@ -22497,7 +22502,7 @@
       <c r="C11" s="13"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F11" s="13"/>
     </row>
@@ -24748,8 +24753,8 @@
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
